--- a/src/assets/formatos/Formato Carga de Maestros.xlsx
+++ b/src/assets/formatos/Formato Carga de Maestros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\TESI Indicadores\Website Angular\Tesi-Indicadores-FrontEnd\src\assets\formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B12CE5-0408-4396-A998-7CF959AD955B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0936121F-64D0-4507-B184-2E0197DA08E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E186D6C7-C6D6-47B6-9AF2-264C7F877308}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Formato" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Formato!$A$1:$E$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Formato!$A$1:$E$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>No.</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>Formato para la Carga de Maestros.                                                           (Nota no Modificar los nombres de las columnas)</t>
+  </si>
+  <si>
+    <t>martha</t>
+  </si>
+  <si>
+    <t>ISC</t>
   </si>
 </sst>
 </file>
@@ -102,7 +108,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -124,21 +130,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color rgb="FFFFFFFF"/>
@@ -154,20 +145,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
@@ -200,13 +183,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -243,13 +226,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -286,13 +269,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -329,13 +312,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -372,13 +355,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -415,13 +398,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -458,13 +441,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -501,13 +484,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -544,13 +527,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -587,13 +570,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -630,13 +613,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -673,13 +656,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -716,13 +699,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1105,10 +1088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A9229E7-13F4-4225-BBED-27D055220375}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1122,233 +1105,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="30.75" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>20122423</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1361,6 +1158,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005E2DB502ABF570459D92EAB368475EB9" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dc33ec95a03d3916ee7c550885e77c05">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="aa9ecf5a-f88a-4c81-95fd-fe1157aac7ad" xmlns:ns4="112e49ae-75ca-444f-98be-3b3ec7e22459" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9408b6cd564dfbdec8defa50352aa754" ns3:_="" ns4:_="">
     <xsd:import namespace="aa9ecf5a-f88a-4c81-95fd-fe1157aac7ad"/>
@@ -1531,15 +1337,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1547,6 +1344,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60FEB2BC-FDC5-4E40-9D1B-465E85B3F859}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D91726C-1B1F-487D-8645-98B7DB2DCA99}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1561,14 +1366,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60FEB2BC-FDC5-4E40-9D1B-465E85B3F859}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/src/assets/formatos/Formato Carga de Maestros.xlsx
+++ b/src/assets/formatos/Formato Carga de Maestros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\TESI Indicadores\Website Angular\Tesi-Indicadores-FrontEnd\src\assets\formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0936121F-64D0-4507-B184-2E0197DA08E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35B6760-54BD-4B33-BFF9-A3B7547682AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E186D6C7-C6D6-47B6-9AF2-264C7F877308}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Formato" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Formato!$A$1:$E$3</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Formato!$A$1:$E$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>No.</t>
   </si>
@@ -46,12 +46,6 @@
   </si>
   <si>
     <t>Formato para la Carga de Maestros.                                                           (Nota no Modificar los nombres de las columnas)</t>
-  </si>
-  <si>
-    <t>martha</t>
-  </si>
-  <si>
-    <t>ISC</t>
   </si>
 </sst>
 </file>
@@ -1088,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A9229E7-13F4-4225-BBED-27D055220375}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1130,23 +1124,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>20122423</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
@@ -1158,15 +1135,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005E2DB502ABF570459D92EAB368475EB9" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dc33ec95a03d3916ee7c550885e77c05">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="aa9ecf5a-f88a-4c81-95fd-fe1157aac7ad" xmlns:ns4="112e49ae-75ca-444f-98be-3b3ec7e22459" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9408b6cd564dfbdec8defa50352aa754" ns3:_="" ns4:_="">
     <xsd:import namespace="aa9ecf5a-f88a-4c81-95fd-fe1157aac7ad"/>
@@ -1337,6 +1305,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1344,14 +1321,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60FEB2BC-FDC5-4E40-9D1B-465E85B3F859}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D91726C-1B1F-487D-8645-98B7DB2DCA99}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1366,6 +1335,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60FEB2BC-FDC5-4E40-9D1B-465E85B3F859}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/src/assets/formatos/Formato Carga de Maestros.xlsx
+++ b/src/assets/formatos/Formato Carga de Maestros.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\TESI Indicadores\Website Angular\Tesi-Indicadores-FrontEnd\src\assets\formatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ciak3\Desktop\Tesi Indicadores\Tesi Indicadores Fron End\Tesi-Indicadores-FrontEnd\Formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35B6760-54BD-4B33-BFF9-A3B7547682AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1EAB4D-46FB-4AC2-8D2E-454772041BE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E186D6C7-C6D6-47B6-9AF2-264C7F877308}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E186D6C7-C6D6-47B6-9AF2-264C7F877308}"/>
   </bookViews>
   <sheets>
     <sheet name="Formato" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Formato!$A$1:$E$2</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Formato!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>No.</t>
   </si>
@@ -44,15 +44,12 @@
   <si>
     <t>Matricula</t>
   </si>
-  <si>
-    <t>Formato para la Carga de Maestros.                                                           (Nota no Modificar los nombres de las columnas)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -69,13 +66,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="22"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -141,18 +131,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -177,13 +163,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -220,13 +206,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -263,13 +249,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -306,13 +292,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -349,13 +335,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -392,13 +378,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -435,13 +421,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -478,13 +464,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -521,13 +507,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -564,13 +550,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -607,13 +593,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -650,13 +636,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -693,13 +679,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -734,50 +720,61 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:colOff>1228725</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>723900</xdr:rowOff>
+      <xdr:rowOff>714375</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Imagen 15">
+        <xdr:cNvPr id="17" name="Imagen 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{781A3794-159C-4A0B-8909-21D14BF1B74A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{073EA58E-CB03-45E0-8DE2-AB189C0D900D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6810376" y="0"/>
-          <a:ext cx="1228724" cy="723900"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8029575" cy="714375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1082,52 +1079,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A9229E7-13F4-4225-BBED-27D055220375}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:ALY8"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="38.7109375" customWidth="1"/>
     <col min="4" max="4" width="37.140625" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="1013" width="10.5703125" customWidth="1"/>
+    <col min="6" max="1013" width="10.5703125" hidden="1"/>
+    <col min="1014" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="58.5" customHeight="1" thickBot="1">
+    <row r="1" spans="1:5" ht="81.75" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" ht="30.75" customHeight="1">
-      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="8" spans="1:5">
+      <c r="D8" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup scale="58" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
